--- a/台湾出行.xlsx
+++ b/台湾出行.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\git\common-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991D777-B49D-44F4-B03D-60E4CD4876A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D23D5F-70BA-4FD9-B9B8-3F24ED7DA353}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>早餐</t>
   </si>
@@ -49,34 +49,6 @@
     <t xml:space="preserve">香港国际机场(HKG)T1 - 高雄国际机场(KHH)国际航站楼 
 中华航空CI930 16:35-18:05 耗时1h30m 
 航司预订号（确认码） SE9VVP </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>入住酒店后，高雄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当地夜市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>解决</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,48 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高雄周边游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住后在垦丁当地解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>home one 36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乘车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去垦丁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垦丁当地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垦丁周边游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,28 +137,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、高雄
-2、日月潭
-3、台北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旅游景点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,25 +201,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘎巴暮暮会馆 (Kapamumu b&amp;b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、高雄
-2、日月潭
-3、台北
-台北大学
-101大厦
-台湾故宫博物馆
+    <t>住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市信義區永吉路200巷61弄2號 
+電話0955165373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民宿含早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民宿含早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home one 36（下午3点到9点）
+94450 屏東縣 車城鄉 後灣村 後灣路 36號
+0922-682600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘎巴暮暮会馆 (Kapamumu b&amp;b)
+中正路291号，南投县鱼池乡,55546
++886 4 9285 0539
+订单编号: 1537938016 密码: 1073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">六合夜市
+特色：郑老牌木瓜牛奶
+瑞丰夜市
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Airbnb民宿</t>
+    <t>高雄85大楼
+打狗英国领事馆
+驳二艺术特区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">垦丁国家公园
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垦丁大街
+特色：新鲜的海产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅銮鼻公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85马斯提设计酒店
+85大楼12-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垦丁当地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘车去垦丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄光寺
+文武庙
+阿婆茶叶蛋
+拉鲁岛
+玄奘寺
+环湖自行车道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去台北</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日月潭当地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101大楼就餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北故宫</t>
+  </si>
+  <si>
+    <t>101大楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏夜市</t>
+  </si>
+  <si>
+    <t>中正纪念堂
+诚品书店
+台湾师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门町
+师大夜市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,14 +371,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -347,6 +382,44 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -368,45 +441,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,174 +853,223 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.125" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="44.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="5">
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4">
         <v>43219</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>43220</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>43221</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>43222</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>43223</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>43224</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>43225</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>43226</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="85.5">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="54">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="67.5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56.25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="54">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://lvyou.baidu.com/taibeigugong" xr:uid="{E8B8D2AB-128E-4624-956B-4F78DEB5A5FC}"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://lvyou.baidu.com/ningxiayeshi" xr:uid="{58BD1F7E-C972-43C8-9F13-10F35EB476B6}"/>
+    <hyperlink ref="H6" r:id="rId3" display="https://lvyou.baidu.com/shidayeshi" xr:uid="{B7C0318A-12D8-4D77-95A1-79BF242BB4EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -934,63 +1081,63 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/台湾出行.xlsx
+++ b/台湾出行.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\git\common-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D23D5F-70BA-4FD9-B9B8-3F24ED7DA353}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02353F41-33AB-48A4-862F-6B498F1C9018}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>早餐</t>
   </si>
@@ -49,34 +49,6 @@
     <t xml:space="preserve">香港国际机场(HKG)T1 - 高雄国际机场(KHH)国际航站楼 
 中华航空CI930 16:35-18:05 耗时1h30m 
 航司预订号（确认码） SE9VVP </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收拾行李，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>坐车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去香港机场</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,16 +243,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乘车去垦丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玄光寺
 文武庙
 阿婆茶叶蛋
 拉鲁岛
 玄奘寺
 环湖自行车道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日月潭当地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101大楼就餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北故宫</t>
+  </si>
+  <si>
+    <t>101大楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏夜市</t>
+  </si>
+  <si>
+    <t>中正纪念堂
+诚品书店
+台湾师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门町
+师大夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收拾行李，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坐车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去香港机场
+京基百纳广场-永东巴士
+南山区白石路与沙河东路交匯处京基百纳广场L1 66-69铺 
+电话：0755-8628-3624
+6:30 22:00 七座商务车 15分钟/班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">乘车去垦丁
+方案一：垦丁专线2小时 半小时一班
+左营高铁站-垦丁 418台币
+方案二：出租车 2小时
+方案三：淘宝飞猪预订
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,45 +357,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>去台北</t>
+      <t>去台北
+方案1：日月潭游客中心搭车到台中高铁站，搭高铁回台北
+方案2：拼车</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日月潭当地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101大楼就餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北故宫</t>
-  </si>
-  <si>
-    <t>101大楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台湾大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁夏夜市</t>
-  </si>
-  <si>
-    <t>中正纪念堂
-诚品书店
-台湾师范大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士林夜市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门町
-师大夜市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,31 +490,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,17 +868,17 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="44.375" bestFit="1" customWidth="1"/>
@@ -901,48 +916,48 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="85.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -950,45 +965,45 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="54">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="94.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
+      <c r="C5" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -996,66 +1011,69 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="56.25" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="54">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1088,56 +1106,56 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/台湾出行.xlsx
+++ b/台湾出行.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\git\common-resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02353F41-33AB-48A4-862F-6B498F1C9018}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="日程安排" sheetId="9" r:id="rId1"/>
     <sheet name="物品" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>早餐</t>
   </si>
@@ -363,11 +357,17 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.从垦丁搭9189线垦丁快线至高雄左营高铁站全程2小时左右
+2.从高雄搭高铁至台中高铁站车程1小时
+3.从台中高铁站出口的公交乘坐处搭南投客运或者台湾好行前往日月潭全程1小时10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -523,74 +523,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -610,7 +542,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -645,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +612,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,18 +789,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D37F60-94FA-490A-BEFE-D2EAB428309C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1062,14 +994,16 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="54">
+    <row r="11" spans="1:9" ht="121.5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
         <v>54</v>
@@ -1082,9 +1016,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://lvyou.baidu.com/taibeigugong" xr:uid="{E8B8D2AB-128E-4624-956B-4F78DEB5A5FC}"/>
-    <hyperlink ref="F6" r:id="rId2" display="https://lvyou.baidu.com/ningxiayeshi" xr:uid="{58BD1F7E-C972-43C8-9F13-10F35EB476B6}"/>
-    <hyperlink ref="H6" r:id="rId3" display="https://lvyou.baidu.com/shidayeshi" xr:uid="{B7C0318A-12D8-4D77-95A1-79BF242BB4EF}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://lvyou.baidu.com/taibeigugong"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://lvyou.baidu.com/ningxiayeshi"/>
+    <hyperlink ref="H6" r:id="rId3" display="https://lvyou.baidu.com/shidayeshi"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
@@ -1092,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F348F09-8E8C-4826-81AB-8208A2022DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/台湾出行.xlsx
+++ b/台湾出行.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\git\common-resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469D09A6-B63A-4D06-89B3-38C008583E1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程安排" sheetId="9" r:id="rId1"/>
     <sheet name="物品" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>早餐</t>
   </si>
@@ -147,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>证件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,38 +286,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收拾行李，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>坐车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去香港机场
-京基百纳广场-永东巴士
-南山区白石路与沙河东路交匯处京基百纳广场L1 66-69铺 
-电话：0755-8628-3624
-6:30 22:00 七座商务车 15分钟/班</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,12 +333,128 @@
 3.从台中高铁站出口的公交乘坐处搭南投客运或者台湾好行前往日月潭全程1小时10分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台币（机场换币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长袖两件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖五件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小内内五件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子五件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长裤两条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短裤一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙滩裤一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机票行程单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行借记卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡VISA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡(银联)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自拍杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防嗮服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士力架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创口贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +524,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +542,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -455,16 +550,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,13 +623,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="标题 1" xfId="2" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -542,7 +721,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -789,18 +968,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -851,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -868,25 +1047,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -903,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="94.5">
@@ -917,22 +1096,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -943,43 +1122,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="56.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1002,11 +1181,11 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1016,9 +1195,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://lvyou.baidu.com/taibeigugong"/>
-    <hyperlink ref="F6" r:id="rId2" display="https://lvyou.baidu.com/ningxiayeshi"/>
-    <hyperlink ref="H6" r:id="rId3" display="https://lvyou.baidu.com/shidayeshi"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://lvyou.baidu.com/taibeigugong" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://lvyou.baidu.com/ningxiayeshi" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" display="https://lvyou.baidu.com/shidayeshi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
@@ -1026,30 +1205,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="20.25" thickBot="1">
+      <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickTop="1">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1057,10 +1246,16 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1068,28 +1263,113 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="C6" t="s">
         <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/台湾出行.xlsx
+++ b/台湾出行.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\git\common-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469D09A6-B63A-4D06-89B3-38C008583E1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A381EB3-5536-40F2-9519-A11DA93020CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,6 +298,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.从垦丁搭9189线垦丁快线至高雄左营高铁站全程2小时左右
+2.从高雄搭高铁至台中高铁站车程1小时
+3.从台中高铁站出口的公交乘坐处搭南投客运或者台湾好行前往日月潭全程1小时10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台币（机场换币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长袖两件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖五件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小内内五件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子五件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长裤两条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短裤一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙滩裤一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机票行程单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行借记卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡VISA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡(银联)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自拍杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防嗮服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士力架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创口贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>出发</t>
     </r>
@@ -321,132 +443,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>去台北
-方案1：日月潭游客中心搭车到台中高铁站，搭高铁回台北
-方案2：拼车</t>
+      <t xml:space="preserve">去台北
+日月潭游客中心搭车到台中高铁站，搭高铁回台北
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.从垦丁搭9189线垦丁快线至高雄左营高铁站全程2小时左右
-2.从高雄搭高铁至台中高铁站车程1小时
-3.从台中高铁站出口的公交乘坐处搭南投客运或者台湾好行前往日月潭全程1小时10分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台币（机场换币）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源转换器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长袖两件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短袖五件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小内内五件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袜子五件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长裤两条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短裤一条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙滩裤一条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机票行程单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民币3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行借记卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行信用卡VISA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行信用卡(银联)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自拍杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡衣一套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防嗮服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牙刷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唇膏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士力架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创口贴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,14 +617,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>36</v>
@@ -1105,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
@@ -1150,18 +1150,18 @@
       <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
@@ -1210,7 +1210,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1221,21 +1221,21 @@
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="20.25" thickBot="1">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>74</v>
+      <c r="G1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickTop="1">
@@ -1246,13 +1246,13 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1263,13 +1263,13 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1280,30 +1280,30 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1311,13 +1311,13 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1354,17 +1354,17 @@
     </row>
     <row r="11" spans="1:9">
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="E13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1375,5 +1375,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>